--- a/DowloadSuaThietBi.xlsx
+++ b/DowloadSuaThietBi.xlsx
@@ -29,7 +29,7 @@
     <t>---------o0o---------</t>
   </si>
   <si>
-    <t>Ngày: 22/04/2023</t>
+    <t>Ngày: 05/05/2023</t>
   </si>
   <si>
     <t>STT</t>
